--- a/Dashboard/voterinfo/sample-excel-file/voters.xlsx
+++ b/Dashboard/voterinfo/sample-excel-file/voters.xlsx
@@ -1,30 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\md_sa\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8071EE3D-E3C1-40CA-A03D-A9CFBACCBD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>votername</t>
   </si>
@@ -39,13 +35,162 @@
   </si>
   <si>
     <t>student_id</t>
+  </si>
+  <si>
+    <t>UG02-51-19-011</t>
+  </si>
+  <si>
+    <t>Shon Pollock</t>
+  </si>
+  <si>
+    <t>shonpollock0@gmail.com</t>
+  </si>
+  <si>
+    <t>Miraz Hossain</t>
+  </si>
+  <si>
+    <t>miraz@gmail.com</t>
+  </si>
+  <si>
+    <t>Ashik</t>
+  </si>
+  <si>
+    <t>ashik@gmail.com</t>
+  </si>
+  <si>
+    <t>kobita@gmail.com</t>
+  </si>
+  <si>
+    <t>kousik@gmail.com</t>
+  </si>
+  <si>
+    <t>Irin</t>
+  </si>
+  <si>
+    <t>Rasmi</t>
+  </si>
+  <si>
+    <t>irin@gmail.com</t>
+  </si>
+  <si>
+    <t>nila@gmail.com</t>
+  </si>
+  <si>
+    <t>rasmi@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <t>ovi</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>UG02-51-19-012</t>
+  </si>
+  <si>
+    <t>UG02-51-19-013</t>
+  </si>
+  <si>
+    <t>UG02-51-19-014</t>
+  </si>
+  <si>
+    <t>UG02-51-19-016</t>
+  </si>
+  <si>
+    <t>UG02-51-19-001</t>
+  </si>
+  <si>
+    <t>UG02-51-19-006</t>
+  </si>
+  <si>
+    <t>UG02-51-19-004</t>
+  </si>
+  <si>
+    <t>UG02-51-19-008</t>
+  </si>
+  <si>
+    <t>UG02-51-19-002</t>
+  </si>
+  <si>
+    <t>sakib@gmail.com</t>
+  </si>
+  <si>
+    <t>Sakib Hasan Mahamud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ovi </t>
+  </si>
+  <si>
+    <t>Nilatry Nila</t>
+  </si>
+  <si>
+    <t>Kousik Aich</t>
+  </si>
+  <si>
+    <t>Akib</t>
+  </si>
+  <si>
+    <t>akib@gmail.com</t>
+  </si>
+  <si>
+    <t>Kobita Nur</t>
+  </si>
+  <si>
+    <t>UG02-52-19-002</t>
+  </si>
+  <si>
+    <t>Shifat</t>
+  </si>
+  <si>
+    <t>shifat@gmail.com</t>
+  </si>
+  <si>
+    <t>UG02-52-19-001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,6 +202,20 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -81,11 +240,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -147,7 +310,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -182,7 +345,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -357,30 +520,26 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="A2:E7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -397,25 +556,227 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>51</v>
+      </c>
+      <c r="D2">
+        <v>12345678</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>51</v>
+      </c>
+      <c r="D3">
+        <v>12345678</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>51</v>
+      </c>
+      <c r="D4">
+        <v>12345678</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>51</v>
+      </c>
+      <c r="D5">
+        <v>12345678</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>51</v>
+      </c>
+      <c r="D6">
+        <v>12345678</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>51</v>
+      </c>
+      <c r="D7">
+        <v>12345678</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>51</v>
+      </c>
+      <c r="D8">
+        <v>12345678</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>51</v>
+      </c>
+      <c r="D9">
+        <v>12345678</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>51</v>
+      </c>
+      <c r="D10">
+        <v>12345678</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>51</v>
+      </c>
+      <c r="D11">
+        <v>12345678</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>52</v>
+      </c>
+      <c r="D12">
+        <v>12345678</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13">
+        <v>52</v>
+      </c>
+      <c r="D13">
+        <v>12345678</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{29C87931-4E45-40FF-8C0D-6FC7299A9487}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{558D0A20-1DD2-4E61-8FA1-5DBFF5333663}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{A9EB1BFA-A7FB-4BF5-9DE4-13A5566949A2}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{5A0FF0E6-F551-4706-8E42-F5DEBC678B1C}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{837F21B3-7278-42CA-B271-E2F9BD45E5C3}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{F5506142-A861-4EBD-A775-7D479249CEBD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>